--- a/Assignment1/Assignment 1 Data.xlsx
+++ b/Assignment1/Assignment 1 Data.xlsx
@@ -8,18 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofc-my.sharepoint.com/personal/luke_garland1_ucalgary_ca/Documents/CPSC 319/CPSC-319-Workspace/Assignment1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{A0A37255-E689-4734-90B6-0B95641D5EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ECAA5F1C-158F-48CD-8766-6AE928041439}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{A0A37255-E689-4734-90B6-0B95641D5EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A2848AED-A958-4DAE-A4F2-9CC0451C9D0C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{26647C47-9BF8-4AB3-9C3B-CEAA1FE46562}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{26647C47-9BF8-4AB3-9C3B-CEAA1FE46562}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Charts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$43:$A$67</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$F$43:$F$67</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="8">
   <si>
     <t>fibRec(n)</t>
   </si>
@@ -59,6 +55,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Values are average execution time after 100 function calls (ns)</t>
   </si>
 </sst>
 </file>
@@ -2457,6 +2456,7 @@
       <c:valAx>
         <c:axId val="558412752"/>
         <c:scaling>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -10738,10 +10738,10 @@
       <xdr:rowOff>18522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>47097</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>160866</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10919,7 +10919,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A805BD3-F0EC-4225-BB13-AB1E8D5EFD36}" name="Table1" displayName="Table1" ref="A1:F62" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A805BD3-F0EC-4225-BB13-AB1E8D5EFD36}" name="Table1" displayName="Table1" ref="A1:F62" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F62" xr:uid="{99C42387-3A45-4FE8-B5C0-9E2AE785663D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10929,12 +10929,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1C99C756-4420-403D-89E7-6FCC66D7921B}" name="n" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{F91D9447-C8D5-411B-B9C8-876C2113C00A}" name="fibRec(n)" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{138CDAB5-11A6-445A-A204-54EE722C2F21}" name="fibMem(n)" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{9B51101B-AD1C-446F-A345-CC83DE25ED80}" name="fibDyn(n)" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{DC1C8BD9-69E1-4B73-A3EF-650297CB5E13}" name="fibIter(n)" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{8D68E9CD-0BF6-40B7-B785-383140BB638E}" name="fibMat(n)" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1C99C756-4420-403D-89E7-6FCC66D7921B}" name="n" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{F91D9447-C8D5-411B-B9C8-876C2113C00A}" name="fibRec(n)" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{138CDAB5-11A6-445A-A204-54EE722C2F21}" name="fibMem(n)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{9B51101B-AD1C-446F-A345-CC83DE25ED80}" name="fibDyn(n)" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{DC1C8BD9-69E1-4B73-A3EF-650297CB5E13}" name="fibIter(n)" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{8D68E9CD-0BF6-40B7-B785-383140BB638E}" name="fibMat(n)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11237,10 +11237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D664C1B0-25A4-4ABE-9D11-605F7BDFAAA1}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11252,7 +11252,7 @@
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -11271,8 +11271,11 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -11291,8 +11294,9 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -11311,8 +11315,9 @@
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -11331,8 +11336,9 @@
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -11351,8 +11357,9 @@
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -11371,8 +11378,9 @@
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -11391,8 +11399,9 @@
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -11411,8 +11420,9 @@
       <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -11431,8 +11441,9 @@
       <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -11451,8 +11462,9 @@
       <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -11471,8 +11483,9 @@
       <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -11491,8 +11504,9 @@
       <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -11511,8 +11525,9 @@
       <c r="F13" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -11531,8 +11546,9 @@
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -11551,8 +11567,9 @@
       <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -11571,8 +11588,9 @@
       <c r="F16" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -11591,8 +11609,9 @@
       <c r="F17" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -11611,8 +11630,9 @@
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -11631,8 +11651,9 @@
       <c r="F19" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -11651,8 +11672,9 @@
       <c r="F20" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -11671,8 +11693,9 @@
       <c r="F21" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -11691,8 +11714,9 @@
       <c r="F22" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -11711,8 +11735,9 @@
       <c r="F23" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -11731,8 +11756,9 @@
       <c r="F24" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -11751,8 +11777,9 @@
       <c r="F25" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -11771,8 +11798,9 @@
       <c r="F26" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -11791,8 +11819,9 @@
       <c r="F27" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -11811,8 +11840,9 @@
       <c r="F28" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -11831,8 +11861,9 @@
       <c r="F29" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -11851,8 +11882,9 @@
       <c r="F30" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -11871,8 +11903,9 @@
       <c r="F31" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -11891,8 +11924,9 @@
       <c r="F32" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -11911,8 +11945,9 @@
       <c r="F33" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -11931,8 +11966,9 @@
       <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -11951,8 +11987,9 @@
       <c r="F35" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -11971,8 +12008,9 @@
       <c r="F36" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -11991,8 +12029,9 @@
       <c r="F37" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -12011,8 +12050,9 @@
       <c r="F38" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -12031,8 +12071,9 @@
       <c r="F39" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -12051,8 +12092,9 @@
       <c r="F40" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -12071,8 +12113,9 @@
       <c r="F41" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -12091,12 +12134,15 @@
       <c r="F42" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>100</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C43" s="1">
         <v>5163</v>
       </c>
@@ -12109,12 +12155,15 @@
       <c r="F43" s="1">
         <v>5899</v>
       </c>
+      <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>200</v>
       </c>
-      <c r="B44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C44" s="1">
         <v>8141</v>
       </c>
@@ -12127,12 +12176,15 @@
       <c r="F44" s="1">
         <v>1828</v>
       </c>
+      <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>400</v>
       </c>
-      <c r="B45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C45" s="1">
         <v>15143</v>
       </c>
@@ -12145,12 +12197,15 @@
       <c r="F45" s="1">
         <v>1529</v>
       </c>
+      <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>800</v>
       </c>
-      <c r="B46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C46" s="1">
         <v>28742</v>
       </c>
@@ -12163,12 +12218,15 @@
       <c r="F46" s="1">
         <v>986</v>
       </c>
+      <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>1600</v>
       </c>
-      <c r="B47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C47" s="1">
         <v>63857</v>
       </c>
@@ -12181,12 +12239,15 @@
       <c r="F47" s="1">
         <v>1219</v>
       </c>
+      <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>3200</v>
       </c>
-      <c r="B48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C48" s="1">
         <v>133697</v>
       </c>
@@ -12199,12 +12260,15 @@
       <c r="F48" s="1">
         <v>1577</v>
       </c>
+      <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>6400</v>
       </c>
-      <c r="B49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C49" s="1">
         <v>250464</v>
       </c>
@@ -12217,13 +12281,18 @@
       <c r="F49" s="1">
         <v>1565</v>
       </c>
+      <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>12800</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D50" s="1">
         <v>75843</v>
       </c>
@@ -12233,13 +12302,18 @@
       <c r="F50" s="1">
         <v>829</v>
       </c>
+      <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>25600</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D51" s="1">
         <v>44195</v>
       </c>
@@ -12249,13 +12323,18 @@
       <c r="F51" s="1">
         <v>586</v>
       </c>
+      <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51200</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D52" s="1">
         <v>95093</v>
       </c>
@@ -12265,13 +12344,18 @@
       <c r="F52" s="1">
         <v>1327</v>
       </c>
+      <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>102400</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D53" s="1">
         <v>198104</v>
       </c>
@@ -12281,13 +12365,18 @@
       <c r="F53" s="1">
         <v>1529</v>
       </c>
+      <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>204800</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D54" s="1">
         <v>677062</v>
       </c>
@@ -12297,13 +12386,18 @@
       <c r="F54" s="1">
         <v>2966</v>
       </c>
+      <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>409600</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D55" s="1">
         <v>1240523</v>
       </c>
@@ -12313,13 +12407,18 @@
       <c r="F55" s="1">
         <v>4750</v>
       </c>
+      <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>819200</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D56" s="1">
         <v>2048605</v>
       </c>
@@ -12329,13 +12428,18 @@
       <c r="F56" s="1">
         <v>3465</v>
       </c>
+      <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>1638400</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D57" s="1">
         <v>3502244</v>
       </c>
@@ -12345,13 +12449,18 @@
       <c r="F57" s="1">
         <v>3504</v>
       </c>
+      <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>3276800</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D58" s="1">
         <v>5229999</v>
       </c>
@@ -12361,13 +12470,18 @@
       <c r="F58" s="1">
         <v>4322</v>
       </c>
+      <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>6553600</v>
       </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D59" s="1">
         <v>10651011</v>
       </c>
@@ -12377,13 +12491,18 @@
       <c r="F59" s="1">
         <v>5564</v>
       </c>
+      <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>13107200</v>
       </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D60" s="1">
         <v>75839410</v>
       </c>
@@ -12393,13 +12512,18 @@
       <c r="F60" s="1">
         <v>6106</v>
       </c>
+      <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>26214400</v>
       </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D61" s="1">
         <v>76392420</v>
       </c>
@@ -12409,13 +12533,18 @@
       <c r="F61" s="1">
         <v>6406</v>
       </c>
+      <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>52428800</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D62" s="1">
         <v>102113895</v>
       </c>
@@ -12425,6 +12554,7 @@
       <c r="F62" s="1">
         <v>6563</v>
       </c>
+      <c r="G62" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12442,7 +12572,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
